--- a/biology/Zoologie/Broomistega/Broomistega.xlsx
+++ b/biology/Zoologie/Broomistega/Broomistega.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Broomistega putterilli
 Broomistega est un genre éteint de petits amphibiens temnospondyles appartenant à la famille des Rhinesuchidae. Il a vécu au cours du Trias inférieur, soit il y a environ entre 251,904 à 247,2 millions d'années. Il n'est connu qu'en Afrique du Sud dans la province du KwaZulu-Natal.
-Une seule espèce est rattachée au genre, Broomistega putterilli[2].
+Une seule espèce est rattachée au genre, Broomistega putterilli.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Broomistega putterilli a été initialement décrite en 1930 par Robert Broom sous le protonyme de Lydekkerina putterilli[1] puis rattachée au genre Broomistega, spécialement créé pour elle, en 2000 par Mikhail A. Shishkin (d) et Bruce Sidney Rubidge (d) en 2000[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Broomistega putterilli a été initialement décrite en 1930 par Robert Broom sous le protonyme de Lydekkerina putterilli puis rattachée au genre Broomistega, spécialement créé pour elle, en 2000 par Mikhail A. Shishkin (d) et Bruce Sidney Rubidge (d) en 2000.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Validité du genre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fossiles de Broomistega putterilli ont été considérés un temps comme les restes de jeunes spécimens d'un autre genre de plus grand rhinesuchidé comme Uranocentrodon. Mais Shishkin et Rubidge ont montré qu'en fait l'espèce était un taxon néoténique, c'est-à-dire qui conserve des caractères juvéniles à l'âge adulte[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fossiles de Broomistega putterilli ont été considérés un temps comme les restes de jeunes spécimens d'un autre genre de plus grand rhinesuchidé comme Uranocentrodon. Mais Shishkin et Rubidge ont montré qu'en fait l'espèce était un taxon néoténique, c'est-à-dire qui conserve des caractères juvéniles à l'âge adulte.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2013, V. Fernandez et al. découvrent un squelette complet de Broomistega putterilli enfoui dans le terrier fossilisé d'un cynodonte, Thrinaxodon liorhinus, en compagnie du squelette de ce dernier[3].
-Parmi les hypothèses envisagées pour cette fossilisation surprenante, il a été supposé que l'amphibien se soit installé dans le terrier du cynodonte pendant l'estivation de celui-ci, ou qu'il ait ré-utilisé le terrier du cynodonte après la mort de ce dernier[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2013, V. Fernandez et al. découvrent un squelette complet de Broomistega putterilli enfoui dans le terrier fossilisé d'un cynodonte, Thrinaxodon liorhinus, en compagnie du squelette de ce dernier.
+Parmi les hypothèses envisagées pour cette fossilisation surprenante, il a été supposé que l'amphibien se soit installé dans le terrier du cynodonte pendant l'estivation de celui-ci, ou qu'il ait ré-utilisé le terrier du cynodonte après la mort de ce dernier.
 </t>
         </is>
       </c>
@@ -607,11 +625,13 @@
           <t>Paléobiologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Broomistega est le seul genre de rhinesuchidés connu de la période du Trias. Sa présence au début du Trias inférieur indique que les rhinesuchidés ont survécu à l'extinction massive à la limite  Permien-Trias survenue il y a environ 252 Ma (millions d'années).
-À l'instar du cynodonte dans le terrier duquel il s'est retrouvé fossilisé, sa vie en partie enterrée dans des terriers ou abris a peut-être favorisé sa survie durant cette crise environnementale exceptionnelle[4].
-Broomistega putterilli étant le seul rhinesuchidé du Trias inférieur d'Afrique du Sud, il peut être considéré comme une espèce relique[4].
+À l'instar du cynodonte dans le terrier duquel il s'est retrouvé fossilisé, sa vie en partie enterrée dans des terriers ou abris a peut-être favorisé sa survie durant cette crise environnementale exceptionnelle.
+Broomistega putterilli étant le seul rhinesuchidé du Trias inférieur d'Afrique du Sud, il peut être considéré comme une espèce relique.
 </t>
         </is>
       </c>
@@ -640,9 +660,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’appartenance de Broomistega à la famille des rhinesuchidés a été confirmée en 2017 dans une étude conduite par C. A. Mariscano et al.[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’appartenance de Broomistega à la famille des rhinesuchidés a été confirmée en 2017 dans une étude conduite par C. A. Mariscano et al..
 </t>
         </is>
       </c>
@@ -671,10 +693,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre Broomistega a été choisi en l'honneur de Robert Broom (1866-1951), paléontologue sud-africain, qui a notamment décrit l'espèce type[1].
-Son nom spécifique, putterilli'', lui a été donné en l'honneur de A. W. Putterill, collectionneur qui a trouvé les premiers fossiles de cette espèce dans les environs d’Harrismith[6].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Broomistega a été choisi en l'honneur de Robert Broom (1866-1951), paléontologue sud-africain, qui a notamment décrit l'espèce type.
+Son nom spécifique, putterilli'', lui a été donné en l'honneur de A. W. Putterill, collectionneur qui a trouvé les premiers fossiles de cette espèce dans les environs d’Harrismith.
 </t>
         </is>
       </c>
@@ -704,6 +728,8 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
